--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H2">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I2">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J2">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>9604.552839884735</v>
+        <v>1832.108205191631</v>
       </c>
       <c r="R2">
-        <v>86440.97555896261</v>
+        <v>16488.97384672468</v>
       </c>
       <c r="S2">
-        <v>0.2726993330604382</v>
+        <v>0.1117776099394593</v>
       </c>
       <c r="T2">
-        <v>0.2726993330604382</v>
+        <v>0.1117776099394593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H3">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I3">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J3">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>9075.389944168859</v>
+        <v>3190.931844511474</v>
       </c>
       <c r="R3">
-        <v>81678.50949751974</v>
+        <v>28718.38660060327</v>
       </c>
       <c r="S3">
-        <v>0.2576749616870198</v>
+        <v>0.194679950697506</v>
       </c>
       <c r="T3">
-        <v>0.2576749616870198</v>
+        <v>0.194679950697506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.36364133333332</v>
+        <v>30.014089</v>
       </c>
       <c r="H4">
-        <v>256.090924</v>
+        <v>90.042267</v>
       </c>
       <c r="I4">
-        <v>0.832590152283795</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="J4">
-        <v>0.8325901522837948</v>
+        <v>0.5469606268302545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>10644.13374313429</v>
+        <v>3942.002706849097</v>
       </c>
       <c r="R4">
-        <v>95797.20368820858</v>
+        <v>35478.02436164187</v>
       </c>
       <c r="S4">
-        <v>0.302215857536337</v>
+        <v>0.2405030661932892</v>
       </c>
       <c r="T4">
-        <v>0.302215857536337</v>
+        <v>0.2405030661932892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>33.690216</v>
       </c>
       <c r="I5">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J5">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>1263.533493124224</v>
+        <v>685.5016341189894</v>
       </c>
       <c r="R5">
-        <v>11371.80143811801</v>
+        <v>6169.514707070905</v>
       </c>
       <c r="S5">
-        <v>0.03587514657045052</v>
+        <v>0.0418227122471731</v>
       </c>
       <c r="T5">
-        <v>0.03587514657045052</v>
+        <v>0.0418227122471731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.690216</v>
       </c>
       <c r="I6">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J6">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>1193.919107821552</v>
@@ -818,10 +818,10 @@
         <v>10745.27197039397</v>
       </c>
       <c r="S6">
-        <v>0.03389860515723478</v>
+        <v>0.07284145333511347</v>
       </c>
       <c r="T6">
-        <v>0.03389860515723478</v>
+        <v>0.07284145333511348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.690216</v>
       </c>
       <c r="I7">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="J7">
-        <v>0.1095319647872954</v>
+        <v>0.2046507965132272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>1400.296267192517</v>
+        <v>1474.939793178805</v>
       </c>
       <c r="R7">
-        <v>12602.66640473266</v>
+        <v>13274.45813860925</v>
       </c>
       <c r="S7">
-        <v>0.03975821305961011</v>
+        <v>0.08998663093094057</v>
       </c>
       <c r="T7">
-        <v>0.03975821305961011</v>
+        <v>0.08998663093094059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H8">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I8">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J8">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>667.6648568645279</v>
+        <v>832.0064133419004</v>
       </c>
       <c r="R8">
-        <v>6008.983711780752</v>
+        <v>7488.057720077104</v>
       </c>
       <c r="S8">
-        <v>0.01895681810596763</v>
+        <v>0.05076102387082106</v>
       </c>
       <c r="T8">
-        <v>0.01895681810596762</v>
+        <v>0.05076102387082106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H9">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I9">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J9">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>630.8798576130273</v>
+        <v>1449.082402255143</v>
       </c>
       <c r="R9">
-        <v>5677.918718517246</v>
+        <v>13041.74162029628</v>
       </c>
       <c r="S9">
-        <v>0.0179123920999118</v>
+        <v>0.08840906179581685</v>
       </c>
       <c r="T9">
-        <v>0.0179123920999118</v>
+        <v>0.08840906179581687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.934092333333333</v>
+        <v>13.63015266666667</v>
       </c>
       <c r="H10">
-        <v>17.802277</v>
+        <v>40.890458</v>
       </c>
       <c r="I10">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="J10">
-        <v>0.05787788292890966</v>
+        <v>0.2483885766565184</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>739.9317959441759</v>
+        <v>1790.162570210491</v>
       </c>
       <c r="R10">
-        <v>6659.386163497582</v>
+        <v>16111.46313189442</v>
       </c>
       <c r="S10">
-        <v>0.02100867272303023</v>
+        <v>0.1092184909898805</v>
       </c>
       <c r="T10">
-        <v>0.02100867272303024</v>
+        <v>0.1092184909898805</v>
       </c>
     </row>
   </sheetData>
